--- a/config/project/reliability_120KW/reliabilityConfig.xlsx
+++ b/config/project/reliability_120KW/reliabilityConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\reliability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\reliability_120KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3274,7 +3274,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3299,7 +3299,7 @@
       <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">

--- a/config/project/reliability_120KW/reliabilityConfig.xlsx
+++ b/config/project/reliability_120KW/reliabilityConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>提示</t>
-  </si>
-  <si>
-    <t>resistance</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
@@ -1053,6 +1049,10 @@
       </rPr>
       <t>A</t>
     </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>resistance_jinko</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2264,15 +2264,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
     <col min="2" max="2" width="34.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="57.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -2308,22 +2308,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D2" s="20">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,22 +2331,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D3" s="20">
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2354,22 +2354,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,22 +2377,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,22 +2400,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D6" s="20">
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2423,22 +2423,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D7" s="20">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,22 +2446,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5">
         <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,22 +2469,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>203</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D9" s="20">
         <v>8</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2492,22 +2492,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2515,22 +2515,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="20">
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5">
         <v>3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2538,22 +2538,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="D12" s="20">
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2561,22 +2561,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2615,10 +2615,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,10 +2626,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,10 +2637,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2659,10 +2659,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2670,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -2681,10 +2681,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -2692,10 +2692,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2714,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2725,10 +2725,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,10 +2780,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,10 +2791,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2802,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2824,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2846,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,10 +2857,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2868,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2879,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2890,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,10 +2901,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,10 +2912,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,10 +2923,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,10 +2934,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,10 +2945,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,10 +2956,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,10 +2967,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,10 +2978,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,10 +3000,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,10 +3011,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3043,223 +3043,223 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="D10" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>201</v>
-      </c>
       <c r="D11" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3285,51 +3285,51 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3370,10 +3370,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="4" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -3458,10 +3458,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>1.5</v>
@@ -3502,10 +3502,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3546,10 +3546,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -3590,10 +3590,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3634,10 +3634,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3882,24 +3882,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="17">
         <v>10</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="17">
         <v>10</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="17">
         <v>10</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="17">
         <v>10</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17">
         <v>10</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="17">
         <v>10</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="17">
         <v>3</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="17">
         <v>3</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="17">
         <v>3</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="17">
         <v>3</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="17">
         <v>3</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="16">
         <v>0</v>
@@ -4931,13 +4931,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D1">
         <v>15</v>
@@ -4990,64 +4990,64 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="18"/>
       <c r="E2" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="18"/>
       <c r="G3">
@@ -5068,37 +5068,37 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="18"/>
     </row>
